--- a/BackTest/2019-11-01 BackTest LINK.xlsx
+++ b/BackTest/2019-11-01 BackTest LINK.xlsx
@@ -451,17 +451,13 @@
         <v>3066.45</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3100</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3066.95</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3067.616666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3103</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>3068.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3112</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>3068.966666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3112</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>3069.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3124</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>3070.716666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3124</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -795,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -836,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1533,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1615,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1697,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1817,17 +1609,11 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1858,17 +1644,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1899,17 +1679,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1981,17 +1749,11 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2025,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2063,19 +1819,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3100</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1.02983870967742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2104,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2139,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2174,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2209,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2244,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2279,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2314,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2349,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4621,13 +4371,17 @@
         <v>3178.566666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3159</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3159</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4662,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3159</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4451,22 @@
         <v>3178.533333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3162</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3159</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -16311,14 +16079,20 @@
         <v>3182.433333333333</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3156</v>
+      </c>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16346,14 +16120,20 @@
         <v>3181.566666666667</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3166</v>
+      </c>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16381,14 +16161,20 @@
         <v>3180.8</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3162</v>
+      </c>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16416,14 +16202,20 @@
         <v>3180.05</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3160</v>
+      </c>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16451,14 +16243,20 @@
         <v>3179.483333333333</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3155</v>
+      </c>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16291,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16521,14 +16323,20 @@
         <v>3178.8</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3171</v>
+      </c>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16563,7 +16371,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16598,7 +16410,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16633,7 +16449,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16661,14 +16481,20 @@
         <v>3177.383333333333</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3160</v>
+      </c>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16696,14 +16522,20 @@
         <v>3177.283333333333</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3150</v>
+      </c>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16731,14 +16563,20 @@
         <v>3177.166666666667</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3169</v>
+      </c>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16773,7 +16611,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16808,7 +16650,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16843,7 +16689,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16878,7 +16728,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +16767,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16948,7 +16806,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16983,7 +16845,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17011,14 +16877,20 @@
         <v>3171.833333333333</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3113</v>
+      </c>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17046,14 +16918,20 @@
         <v>3170.416666666667</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3133</v>
+      </c>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17081,14 +16959,20 @@
         <v>3169.416666666667</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3118</v>
+      </c>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17116,14 +17000,20 @@
         <v>3168.416666666667</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3135</v>
+      </c>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17151,14 +17041,20 @@
         <v>3167.2</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3135</v>
+      </c>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17186,14 +17082,20 @@
         <v>3165.75</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3135</v>
+      </c>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17221,14 +17123,20 @@
         <v>3164.866666666667</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3121</v>
+      </c>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17256,14 +17164,20 @@
         <v>3164.066666666667</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3135</v>
+      </c>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17298,7 +17212,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17333,7 +17251,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +17290,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17396,14 +17322,20 @@
         <v>3158.733333333333</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3120</v>
+      </c>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17431,14 +17363,20 @@
         <v>3158.033333333333</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3122</v>
+      </c>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17466,14 +17404,20 @@
         <v>3157.3</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3154</v>
+      </c>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17508,7 +17452,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17543,7 +17491,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17578,7 +17530,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17613,7 +17569,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17608,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17683,7 +17647,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17718,7 +17686,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17753,7 +17725,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17788,7 +17764,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17823,7 +17803,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17858,7 +17842,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17893,7 +17881,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17928,7 +17920,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17963,7 +17959,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17998,7 +17998,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest LINK.xlsx
+++ b/BackTest/2019-11-01 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3070</v>
@@ -521,7 +521,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3070</v>
@@ -562,7 +562,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3074</v>
@@ -603,7 +603,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3074</v>
@@ -640,7 +640,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3074</v>
@@ -681,7 +681,7 @@
         <v>7424.921318442909</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3074</v>
@@ -722,7 +722,7 @@
         <v>7425.921318442909</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3071</v>
@@ -759,7 +759,7 @@
         <v>7225.921318442909</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3072</v>
@@ -800,7 +800,7 @@
         <v>7226.921644600769</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3054</v>
@@ -841,7 +841,7 @@
         <v>6802.967844600769</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3066</v>
@@ -882,7 +882,7 @@
         <v>6309.731744600769</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3055</v>
@@ -923,7 +923,7 @@
         <v>6311.101044600769</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3041</v>
@@ -964,7 +964,7 @@
         <v>6297.14394460077</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3051</v>
@@ -1005,7 +1005,7 @@
         <v>6297.14394460077</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3041</v>
@@ -1046,7 +1046,7 @@
         <v>6298.142875019892</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3041</v>
@@ -1087,7 +1087,7 @@
         <v>6298.142875019892</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3054</v>
@@ -1128,7 +1128,7 @@
         <v>6011.686175019892</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3054</v>
@@ -1169,7 +1169,7 @@
         <v>6070.815275019892</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3046</v>
@@ -1210,7 +1210,7 @@
         <v>6070.815275019892</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3059</v>
@@ -1251,7 +1251,7 @@
         <v>6043.079075019892</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3059</v>
@@ -1292,7 +1292,7 @@
         <v>6043.079075019892</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3044</v>
@@ -1333,7 +1333,7 @@
         <v>7246.978175019893</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3044</v>
@@ -1374,7 +1374,7 @@
         <v>6923.336475019893</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3069</v>
@@ -1415,7 +1415,7 @@
         <v>6959.076575019893</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3050</v>
@@ -1456,7 +1456,7 @@
         <v>6784.076575019893</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3066</v>
@@ -1497,7 +1497,7 @@
         <v>7068.222175019892</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3055</v>
@@ -1538,7 +1538,7 @@
         <v>6828.237875019892</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>3064</v>
@@ -1579,7 +1579,7 @@
         <v>6325.551475019893</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3063</v>
@@ -1620,7 +1620,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3062</v>
@@ -1661,7 +1661,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3064</v>
@@ -1702,7 +1702,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3064</v>
@@ -1743,7 +1743,7 @@
         <v>6481.032075019893</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3064</v>
@@ -1784,7 +1784,7 @@
         <v>6448.511175019892</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3056</v>
@@ -1825,7 +1825,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3050</v>
@@ -1866,7 +1866,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3066</v>
@@ -1907,7 +1907,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3066</v>
@@ -1948,7 +1948,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3067</v>
@@ -1989,7 +1989,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3067</v>
@@ -2030,7 +2030,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3067</v>
@@ -2071,7 +2071,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3067</v>
@@ -2112,7 +2112,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3067</v>
@@ -2153,7 +2153,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3067</v>
@@ -2194,7 +2194,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3067</v>
@@ -2235,7 +2235,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3067</v>
@@ -2276,7 +2276,7 @@
         <v>6839.438626536031</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3067</v>
@@ -2317,7 +2317,7 @@
         <v>6834.438626536031</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3054</v>
@@ -2358,7 +2358,7 @@
         <v>7062.683726536031</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3052</v>
@@ -2399,9 +2399,11 @@
         <v>7316.957226536031</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3067</v>
+      </c>
       <c r="J50" t="n">
         <v>3071</v>
       </c>
@@ -2438,9 +2440,11 @@
         <v>7353.929426536031</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3069</v>
+      </c>
       <c r="J51" t="n">
         <v>3071</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>7378.929426536031</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3070</v>
@@ -2518,9 +2522,11 @@
         <v>8296.272826536031</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3074</v>
+      </c>
       <c r="J53" t="n">
         <v>3071</v>
       </c>
@@ -2557,9 +2563,11 @@
         <v>10216.27282653603</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3082</v>
+      </c>
       <c r="J54" t="n">
         <v>3071</v>
       </c>
@@ -2596,9 +2604,11 @@
         <v>10246.53290084317</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3083</v>
+      </c>
       <c r="J55" t="n">
         <v>3071</v>
       </c>
@@ -2635,9 +2645,11 @@
         <v>10268.95290084317</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3092</v>
+      </c>
       <c r="J56" t="n">
         <v>3071</v>
       </c>
@@ -2908,9 +2920,11 @@
         <v>13835.24099542032</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3100</v>
+      </c>
       <c r="J63" t="n">
         <v>3071</v>
       </c>
@@ -2947,7 +2961,7 @@
         <v>14376.57369542032</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3110</v>
@@ -2988,11 +3002,9 @@
         <v>14651.58719542032</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>3071</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>14851.58719542032</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3117</v>
@@ -3070,7 +3082,7 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3124</v>
@@ -3111,11 +3123,9 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>3071</v>
       </c>
@@ -3152,7 +3162,7 @@
         <v>17086.53699542032</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>3129</v>
@@ -3193,9 +3203,11 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3133</v>
+      </c>
       <c r="J70" t="n">
         <v>3071</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>17698.02579542032</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3141</v>
@@ -3390,11 +3402,9 @@
         <v>15556.57839542032</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>3071</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3125</v>
@@ -3472,7 +3482,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3128</v>
@@ -3513,7 +3523,7 @@
         <v>15653.83149542032</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3128</v>
@@ -3554,7 +3564,7 @@
         <v>15887.62199542032</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3141</v>
@@ -3595,7 +3605,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3143</v>
@@ -3636,7 +3646,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3148</v>
@@ -3677,9 +3687,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3148</v>
+      </c>
       <c r="J82" t="n">
         <v>3071</v>
       </c>
@@ -3716,9 +3728,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3148</v>
+      </c>
       <c r="J83" t="n">
         <v>3071</v>
       </c>
@@ -3755,9 +3769,11 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3148</v>
+      </c>
       <c r="J84" t="n">
         <v>3071</v>
       </c>
@@ -3794,7 +3810,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3156</v>
@@ -3835,9 +3851,11 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3156</v>
+      </c>
       <c r="J86" t="n">
         <v>3071</v>
       </c>
@@ -3874,9 +3892,11 @@
         <v>17962.40989542031</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3156</v>
+      </c>
       <c r="J87" t="n">
         <v>3071</v>
       </c>
@@ -3913,9 +3933,11 @@
         <v>18791.98249542031</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3160</v>
+      </c>
       <c r="J88" t="n">
         <v>3071</v>
       </c>
@@ -3952,9 +3974,11 @@
         <v>19218.74699542032</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3167</v>
+      </c>
       <c r="J89" t="n">
         <v>3071</v>
       </c>
@@ -3991,9 +4015,11 @@
         <v>24221.00569542032</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3174</v>
+      </c>
       <c r="J90" t="n">
         <v>3071</v>
       </c>
@@ -4030,9 +4056,11 @@
         <v>29031.15119542032</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3176</v>
+      </c>
       <c r="J91" t="n">
         <v>3071</v>
       </c>
@@ -4069,9 +4097,11 @@
         <v>32445.15819542032</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3200</v>
+      </c>
       <c r="J92" t="n">
         <v>3071</v>
       </c>
@@ -4108,9 +4138,11 @@
         <v>40088.86289542032</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3209</v>
+      </c>
       <c r="J93" t="n">
         <v>3071</v>
       </c>
@@ -4147,9 +4179,11 @@
         <v>40088.86289542032</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3218</v>
+      </c>
       <c r="J94" t="n">
         <v>3071</v>
       </c>
@@ -4186,9 +4220,11 @@
         <v>40351.35329542032</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3218</v>
+      </c>
       <c r="J95" t="n">
         <v>3071</v>
       </c>
@@ -4225,9 +4261,11 @@
         <v>43002.42349542032</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3221</v>
+      </c>
       <c r="J96" t="n">
         <v>3071</v>
       </c>
@@ -4264,9 +4302,11 @@
         <v>44585.35379542032</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3228</v>
+      </c>
       <c r="J97" t="n">
         <v>3071</v>
       </c>
@@ -4303,9 +4343,11 @@
         <v>43313.43209542032</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3230</v>
+      </c>
       <c r="J98" t="n">
         <v>3071</v>
       </c>
@@ -4342,9 +4384,11 @@
         <v>44382.43209542032</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3210</v>
+      </c>
       <c r="J99" t="n">
         <v>3071</v>
       </c>
@@ -4381,9 +4425,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3228</v>
+      </c>
       <c r="J100" t="n">
         <v>3071</v>
       </c>
@@ -4420,9 +4466,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3208</v>
+      </c>
       <c r="J101" t="n">
         <v>3071</v>
       </c>
@@ -4459,9 +4507,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3208</v>
+      </c>
       <c r="J102" t="n">
         <v>3071</v>
       </c>
@@ -4498,9 +4548,11 @@
         <v>42881.1702814472</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3208</v>
+      </c>
       <c r="J103" t="n">
         <v>3071</v>
       </c>
@@ -4537,9 +4589,11 @@
         <v>42261.14649066929</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3199</v>
+      </c>
       <c r="J104" t="n">
         <v>3071</v>
       </c>
@@ -4576,9 +4630,11 @@
         <v>42204.99859066928</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3188</v>
+      </c>
       <c r="J105" t="n">
         <v>3071</v>
       </c>
@@ -4615,9 +4671,11 @@
         <v>43501.77949066928</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3166</v>
+      </c>
       <c r="J106" t="n">
         <v>3071</v>
       </c>
@@ -4654,9 +4712,11 @@
         <v>43735.90327935325</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3185</v>
+      </c>
       <c r="J107" t="n">
         <v>3071</v>
       </c>
@@ -4693,9 +4753,11 @@
         <v>43735.14587935324</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3199</v>
+      </c>
       <c r="J108" t="n">
         <v>3071</v>
       </c>
@@ -4732,9 +4794,11 @@
         <v>43926.77450533379</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3180</v>
+      </c>
       <c r="J109" t="n">
         <v>3071</v>
       </c>
@@ -4771,9 +4835,11 @@
         <v>43751.48450533379</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3187</v>
+      </c>
       <c r="J110" t="n">
         <v>3071</v>
       </c>
@@ -4810,9 +4876,11 @@
         <v>44378.01710533379</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3165</v>
+      </c>
       <c r="J111" t="n">
         <v>3071</v>
       </c>
@@ -4849,9 +4917,11 @@
         <v>44514.14520533379</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3173</v>
+      </c>
       <c r="J112" t="n">
         <v>3071</v>
       </c>
@@ -4888,9 +4958,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3177</v>
+      </c>
       <c r="J113" t="n">
         <v>3071</v>
       </c>
@@ -4927,9 +4999,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3163</v>
+      </c>
       <c r="J114" t="n">
         <v>3071</v>
       </c>
@@ -4966,9 +5040,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3163</v>
+      </c>
       <c r="J115" t="n">
         <v>3071</v>
       </c>
@@ -5005,9 +5081,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3163</v>
+      </c>
       <c r="J116" t="n">
         <v>3071</v>
       </c>
@@ -5044,9 +5122,11 @@
         <v>43854.28540533379</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3163</v>
+      </c>
       <c r="J117" t="n">
         <v>3071</v>
       </c>
@@ -6253,7 +6333,7 @@
         <v>47543.56450533378</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
@@ -6292,7 +6372,7 @@
         <v>48093.40940533378</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
@@ -6331,7 +6411,7 @@
         <v>48074.57500533378</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
@@ -6370,7 +6450,7 @@
         <v>48074.57500533378</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
@@ -6409,7 +6489,7 @@
         <v>48137.58850533378</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
@@ -6448,7 +6528,7 @@
         <v>49004.69460533377</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
@@ -6487,7 +6567,7 @@
         <v>49674.36220533377</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
@@ -7423,7 +7503,7 @@
         <v>52253.36320533377</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
@@ -7462,7 +7542,7 @@
         <v>52254.36320533377</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
@@ -7501,7 +7581,7 @@
         <v>51127.51260533377</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
@@ -7540,7 +7620,7 @@
         <v>51619.85590533377</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
@@ -7579,7 +7659,7 @@
         <v>52013.61870533377</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
@@ -7657,7 +7737,7 @@
         <v>51725.08720533377</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
@@ -7696,7 +7776,7 @@
         <v>51530.53900533378</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
@@ -7735,7 +7815,7 @@
         <v>51530.53900533378</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
@@ -7774,7 +7854,7 @@
         <v>51283.90910533378</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
@@ -7813,7 +7893,7 @@
         <v>51523.90930533378</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
@@ -10777,7 +10857,7 @@
         <v>83042.87299800161</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
@@ -10785,11 +10865,11 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>1.040262129599479</v>
+        <v>1</v>
       </c>
       <c r="M264" t="inlineStr"/>
     </row>
@@ -10816,11 +10896,17 @@
         <v>77429.55249800161</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10849,11 +10935,17 @@
         <v>77429.55249800161</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +10977,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11016,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10948,11 +11052,17 @@
         <v>78339.07919800161</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11094,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11133,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +11172,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +11211,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +11250,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +11289,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +11328,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +11367,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +11406,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11278,13 +11442,19 @@
         <v>93002.34399800158</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L279" t="n">
-        <v>1</v>
+        <v>1.046123412569196</v>
       </c>
       <c r="M279" t="inlineStr"/>
     </row>
@@ -11311,7 +11481,7 @@
         <v>93388.54589800158</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11344,7 +11514,7 @@
         <v>93388.54589800158</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11377,7 +11547,7 @@
         <v>93388.54589800158</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11410,7 +11580,7 @@
         <v>96296.17819800158</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11443,7 +11613,7 @@
         <v>103727.5829980016</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11476,7 +11646,7 @@
         <v>107727.0469980016</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11509,7 +11679,7 @@
         <v>146169.5865980016</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11542,7 +11712,7 @@
         <v>147855.8920980016</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11575,7 +11745,7 @@
         <v>145899.9516980016</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11608,7 +11778,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11641,7 +11811,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11674,7 +11844,7 @@
         <v>146064.6431980015</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11707,7 +11877,7 @@
         <v>143206.1335980016</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11740,7 +11910,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11773,7 +11943,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11806,7 +11976,7 @@
         <v>140700.5702980015</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11839,7 +12009,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11872,7 +12042,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11905,7 +12075,7 @@
         <v>140438.3989980016</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11938,7 +12108,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11971,7 +12141,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12004,7 +12174,7 @@
         <v>144975.9714980015</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12037,7 +12207,7 @@
         <v>144165.4067980016</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12070,7 +12240,7 @@
         <v>140758.6884980015</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12103,7 +12273,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12136,7 +12306,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12169,7 +12339,7 @@
         <v>140149.0955980015</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12202,7 +12372,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12235,7 +12405,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12268,7 +12438,7 @@
         <v>139550.2266980015</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12301,7 +12471,7 @@
         <v>139482.4957980015</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12334,7 +12504,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12367,7 +12537,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12400,7 +12570,7 @@
         <v>136217.7729980015</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12433,7 +12603,7 @@
         <v>139923.2060980015</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -13126,7 +13296,7 @@
         <v>134679.7661980016</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13192,7 +13362,7 @@
         <v>131164.9522980016</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13225,7 +13395,7 @@
         <v>129671.8527980016</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13258,7 +13428,7 @@
         <v>128780.8698980016</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13291,7 +13461,7 @@
         <v>128721.7022980016</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13324,7 +13494,7 @@
         <v>128793.7022980016</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13357,7 +13527,7 @@
         <v>128793.7022980016</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13390,7 +13560,7 @@
         <v>127984.6710980016</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13423,7 +13593,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13456,7 +13626,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13489,7 +13659,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13522,7 +13692,7 @@
         <v>129102.1751593886</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13555,7 +13725,7 @@
         <v>129102.1751593886</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13588,7 +13758,7 @@
         <v>129570.6943593886</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13621,7 +13791,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13654,7 +13824,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13687,7 +13857,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13720,7 +13890,7 @@
         <v>130591.7672593886</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13753,7 +13923,7 @@
         <v>131202.9830593886</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14083,7 +14253,7 @@
         <v>110792.5135574115</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14116,7 +14286,7 @@
         <v>111811.8316574115</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14149,7 +14319,7 @@
         <v>110612.8316574115</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14182,7 +14352,7 @@
         <v>109044.6508574115</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14215,7 +14385,7 @@
         <v>109044.6508574115</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14248,7 +14418,7 @@
         <v>108881.7194574115</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14281,7 +14451,7 @@
         <v>108940.6160574115</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14314,7 +14484,7 @@
         <v>108894.2187574115</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14347,7 +14517,7 @@
         <v>108831.9152574115</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14380,7 +14550,7 @@
         <v>108925.5809574115</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14413,7 +14583,7 @@
         <v>108558.2512574115</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14446,7 +14616,7 @@
         <v>108559.1008574115</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14479,7 +14649,7 @@
         <v>108200.5699574115</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14512,7 +14682,7 @@
         <v>107700.5699574115</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14545,7 +14715,7 @@
         <v>107872.1589574115</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14578,7 +14748,7 @@
         <v>109426.5733574115</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14611,7 +14781,7 @@
         <v>107267.0565574115</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14644,7 +14814,7 @@
         <v>107235.5219574115</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14677,7 +14847,7 @@
         <v>107761.9797574115</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14710,7 +14880,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14743,7 +14913,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14776,7 +14946,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14809,7 +14979,7 @@
         <v>108745.9533574115</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14842,7 +15012,7 @@
         <v>108756.3533574115</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15271,7 +15441,7 @@
         <v>108655.4916574115</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15304,7 +15474,7 @@
         <v>108655.4916574115</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15337,7 +15507,7 @@
         <v>108795.5058574115</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15370,7 +15540,7 @@
         <v>108695.5058574115</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15403,7 +15573,7 @@
         <v>109783.0512574115</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15502,7 +15672,7 @@
         <v>110496.8105574115</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15667,7 +15837,7 @@
         <v>110556.6969707929</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15700,7 +15870,7 @@
         <v>111516.4415707929</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15733,7 +15903,7 @@
         <v>111534.8380707929</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15766,7 +15936,7 @@
         <v>112430.6219707929</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16030,7 +16200,7 @@
         <v>114132.915695917</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16063,7 +16233,7 @@
         <v>114132.915695917</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16096,7 +16266,7 @@
         <v>114343.675795917</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16129,7 +16299,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16162,7 +16332,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16195,7 +16365,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16228,7 +16398,7 @@
         <v>114623.011695917</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16261,7 +16431,7 @@
         <v>114622.511695917</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16294,7 +16464,7 @@
         <v>114622.511695917</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16327,7 +16497,7 @@
         <v>114619.4070700244</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16360,7 +16530,7 @@
         <v>114617.0551700244</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16393,7 +16563,7 @@
         <v>114617.0551700244</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16426,7 +16596,7 @@
         <v>114704.3172700244</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16459,7 +16629,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16492,7 +16662,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16525,7 +16695,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16558,7 +16728,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16591,7 +16761,7 @@
         <v>112444.1431700244</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16624,7 +16794,7 @@
         <v>114925.0481700244</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16657,7 +16827,7 @@
         <v>115459.4139700244</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16690,7 +16860,7 @@
         <v>115978.7467700244</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16723,7 +16893,7 @@
         <v>115903.3809700244</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16756,7 +16926,7 @@
         <v>115903.3809700244</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16789,7 +16959,7 @@
         <v>115872.3346700244</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16822,7 +16992,7 @@
         <v>115872.4346700244</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16855,7 +17025,7 @@
         <v>115872.4346700244</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16888,7 +17058,7 @@
         <v>114902.4346700244</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16921,7 +17091,7 @@
         <v>114734.4241700244</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16954,7 +17124,7 @@
         <v>114055.1889700244</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16987,7 +17157,7 @@
         <v>114288.9121700244</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17020,7 +17190,7 @@
         <v>114178.8001700244</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17053,7 +17223,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17086,7 +17256,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17119,7 +17289,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17152,7 +17322,7 @@
         <v>114018.2833700244</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17185,7 +17355,7 @@
         <v>113011.3447700244</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17218,7 +17388,7 @@
         <v>113011.3447700244</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17251,7 +17421,7 @@
         <v>112860.5104700244</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17284,7 +17454,7 @@
         <v>112873.0299700244</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17317,7 +17487,7 @@
         <v>112843.0299700244</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17350,7 +17520,7 @@
         <v>112334.7389700244</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17383,7 +17553,7 @@
         <v>112410.9583700244</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17416,7 +17586,7 @@
         <v>112218.9583700244</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17449,7 +17619,7 @@
         <v>112258.6702700244</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17482,7 +17652,7 @@
         <v>112588.6802700244</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17515,7 +17685,7 @@
         <v>114233.6702700244</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17548,7 +17718,7 @@
         <v>112523.8745700244</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17581,7 +17751,7 @@
         <v>112523.8745700244</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17614,7 +17784,7 @@
         <v>113558.8295700244</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17647,7 +17817,7 @@
         <v>113558.8295700244</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18109,7 +18279,7 @@
         <v>113916.1957303488</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18175,7 +18345,7 @@
         <v>113916.1957303488</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18241,7 +18411,7 @@
         <v>114332.5000303488</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18340,7 +18510,7 @@
         <v>113855.6462303488</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18373,7 +18543,7 @@
         <v>113855.6462303488</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18406,7 +18576,7 @@
         <v>113855.7462303488</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18472,7 +18642,7 @@
         <v>113850.7197303488</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18505,7 +18675,7 @@
         <v>113251.6725303488</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18538,7 +18708,7 @@
         <v>113252.6725303488</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18604,7 +18774,7 @@
         <v>113309.8718303488</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18637,7 +18807,7 @@
         <v>112520.8768303488</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19000,7 +19170,7 @@
         <v>111131.2303303488</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19495,7 +19665,7 @@
         <v>113713.4020905757</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20727,6 +20897,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LINK.xlsx
+++ b/BackTest/2019-11-01 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3070</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,503 +517,447 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3070</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3070</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1423.5197</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7777.821918442909</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3074</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3074</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>172.5889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7777.821918442909</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.8057</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7777.821918442909</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3071</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3071</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3071</v>
+      </c>
+      <c r="F8" t="n">
+        <v>352.9006</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7424.921318442909</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3072</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3072</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3072</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3072</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7425.921318442909</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3055</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3054</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3055</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3054</v>
+      </c>
+      <c r="F10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7225.921318442909</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3066</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3066</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3066</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3066</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.000326157860404</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7226.921644600769</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3054</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3054</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3055</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3055</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3055</v>
+      </c>
+      <c r="F12" t="n">
+        <v>423.9538</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6802.967844600769</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3066</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3054</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1423.5197</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7777.821918442909</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3070</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3041</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3041</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>493.2361</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6309.731744600769</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3054</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="F6" t="n">
-        <v>172.5889</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7777.821918442909</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3074</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="F7" t="n">
-        <v>27.8057</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7777.821918442909</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3074</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3051</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3051</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3051</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.3693</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6311.101044600769</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3041</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3041</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3041</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3041</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.9571</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6297.14394460077</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3051</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3041</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3071</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3071</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3071</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3071</v>
-      </c>
-      <c r="F8" t="n">
-        <v>352.9006</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7424.921318442909</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3074</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2408.1273</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6297.14394460077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3041</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3072</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3072</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3072</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3072</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7425.921318442909</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3071</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3055</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3054</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3055</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3054</v>
-      </c>
-      <c r="F10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7225.921318442909</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3072</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3066</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3066</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3066</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3066</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.000326157860404</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7226.921644600769</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3055</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3055</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3055</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3055</v>
-      </c>
-      <c r="F12" t="n">
-        <v>423.9538</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6802.967844600769</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3066</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3041</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3041</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3041</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3041</v>
-      </c>
-      <c r="F13" t="n">
-        <v>493.2361</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6309.731744600769</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3055</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3051</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3051</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3051</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3051</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.3693</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6311.101044600769</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3041</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3041</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3041</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3041</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3041</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13.9571</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6297.14394460077</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3051</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3041</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3041</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3041</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3041</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2408.1273</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6297.14394460077</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3041</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1052,13 +992,9 @@
         <v>3041</v>
       </c>
       <c r="J17" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3041</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1093,11 +1029,11 @@
         <v>3054</v>
       </c>
       <c r="J18" t="n">
-        <v>3071</v>
+        <v>3041</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1134,11 +1070,11 @@
         <v>3054</v>
       </c>
       <c r="J19" t="n">
-        <v>3071</v>
+        <v>3041</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1175,13 +1111,9 @@
         <v>3046</v>
       </c>
       <c r="J20" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3046</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1216,11 +1148,11 @@
         <v>3059</v>
       </c>
       <c r="J21" t="n">
-        <v>3071</v>
+        <v>3046</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1257,11 +1189,11 @@
         <v>3059</v>
       </c>
       <c r="J22" t="n">
-        <v>3071</v>
+        <v>3046</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1298,13 +1230,9 @@
         <v>3044</v>
       </c>
       <c r="J23" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3044</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1339,11 +1267,11 @@
         <v>3044</v>
       </c>
       <c r="J24" t="n">
-        <v>3071</v>
+        <v>3044</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1380,11 +1308,11 @@
         <v>3069</v>
       </c>
       <c r="J25" t="n">
-        <v>3071</v>
+        <v>3044</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1421,13 +1349,9 @@
         <v>3050</v>
       </c>
       <c r="J26" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3050</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1462,11 +1386,11 @@
         <v>3066</v>
       </c>
       <c r="J27" t="n">
-        <v>3071</v>
+        <v>3050</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1497,17 +1421,15 @@
         <v>7068.222175019892</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>3071</v>
+        <v>3050</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1538,19 +1460,11 @@
         <v>6828.237875019892</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3064</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1579,19 +1493,11 @@
         <v>6325.551475019893</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3063</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1526,11 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3062</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1559,11 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3064</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1702,19 +1592,11 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3064</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1743,19 +1625,11 @@
         <v>6481.032075019893</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3064</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,19 +1658,11 @@
         <v>6448.511175019892</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3056</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1825,19 +1691,11 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1866,19 +1724,11 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3066</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1907,19 +1757,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3066</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1948,19 +1790,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1989,19 +1823,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2030,19 +1856,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2071,19 +1889,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2112,19 +1922,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2153,19 +1955,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2194,19 +1988,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2235,19 +2021,11 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2276,19 +2054,11 @@
         <v>6839.438626536031</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2317,19 +2087,11 @@
         <v>6834.438626536031</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2364,13 +2126,9 @@
         <v>3052</v>
       </c>
       <c r="J49" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3052</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2399,17 +2157,15 @@
         <v>7316.957226536031</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3071</v>
+        <v>3052</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2440,17 +2196,15 @@
         <v>7353.929426536031</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>3071</v>
+        <v>3052</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2481,19 +2235,11 @@
         <v>7378.929426536031</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3070</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2522,19 +2268,11 @@
         <v>8296.272826536031</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2563,19 +2301,11 @@
         <v>10216.27282653603</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3082</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2604,19 +2334,11 @@
         <v>10246.53290084317</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3083</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2645,19 +2367,11 @@
         <v>10268.95290084317</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3092</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2689,14 +2403,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2728,14 +2436,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2767,14 +2469,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2502,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2535,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2881,17 +2565,11 @@
         <v>10905.66659542032</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2920,19 +2598,11 @@
         <v>13835.24099542032</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3100</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2961,19 +2631,11 @@
         <v>14376.57369542032</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3002,17 +2664,11 @@
         <v>14651.58719542032</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3041,19 +2697,11 @@
         <v>14851.58719542032</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3117</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3082,19 +2730,11 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3124</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3123,17 +2763,11 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3162,19 +2796,11 @@
         <v>17086.53699542032</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3129</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3203,19 +2829,11 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3133</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3244,17 +2862,11 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3283,17 +2895,11 @@
         <v>17656.21349542032</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3322,19 +2928,11 @@
         <v>17698.02579542032</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3141</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3363,17 +2961,11 @@
         <v>16556.57839542032</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3402,17 +2994,11 @@
         <v>15556.57839542032</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3441,19 +3027,11 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3125</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3482,19 +3060,11 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3128</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3523,19 +3093,11 @@
         <v>15653.83149542032</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3128</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3564,19 +3126,11 @@
         <v>15887.62199542032</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3141</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3605,19 +3159,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3143</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3646,19 +3192,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3687,19 +3225,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3728,19 +3258,11 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3769,19 +3291,11 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3810,19 +3324,11 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3156</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3851,19 +3357,11 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3156</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3892,19 +3390,11 @@
         <v>17962.40989542031</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3156</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3933,19 +3423,11 @@
         <v>18791.98249542031</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3160</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3974,19 +3456,11 @@
         <v>19218.74699542032</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3167</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4015,19 +3489,11 @@
         <v>24221.00569542032</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3174</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4056,19 +3522,11 @@
         <v>29031.15119542032</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3176</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4097,19 +3555,11 @@
         <v>32445.15819542032</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4138,19 +3588,11 @@
         <v>40088.86289542032</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3209</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4179,19 +3621,11 @@
         <v>40088.86289542032</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3218</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4220,19 +3654,11 @@
         <v>40351.35329542032</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3218</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4261,19 +3687,11 @@
         <v>43002.42349542032</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3221</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4302,19 +3720,11 @@
         <v>44585.35379542032</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3228</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4343,19 +3753,11 @@
         <v>43313.43209542032</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3230</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4384,19 +3786,11 @@
         <v>44382.43209542032</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3210</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4425,19 +3819,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3228</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4466,19 +3852,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3208</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4507,19 +3885,11 @@
         <v>42966.25499542032</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3208</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4548,19 +3918,11 @@
         <v>42881.1702814472</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3208</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4589,19 +3951,11 @@
         <v>42261.14649066929</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3199</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4630,19 +3984,11 @@
         <v>42204.99859066928</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3188</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4671,19 +4017,11 @@
         <v>43501.77949066928</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3166</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4712,19 +4050,11 @@
         <v>43735.90327935325</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3185</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4753,19 +4083,11 @@
         <v>43735.14587935324</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3199</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4794,19 +4116,11 @@
         <v>43926.77450533379</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3180</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4835,19 +4149,11 @@
         <v>43751.48450533379</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3187</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4876,19 +4182,11 @@
         <v>44378.01710533379</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3165</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4917,19 +4215,11 @@
         <v>44514.14520533379</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3173</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4958,19 +4248,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3177</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4999,19 +4281,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3163</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5040,19 +4314,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3163</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5081,19 +4347,11 @@
         <v>43806.05660533379</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3163</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5122,19 +4380,11 @@
         <v>43854.28540533379</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3163</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5166,14 +4416,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5205,14 +4449,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5244,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +4515,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5322,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5361,14 +4581,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5400,14 +4614,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5439,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5517,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5556,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5595,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5634,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5673,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5712,14 +4878,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5751,14 +4911,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5790,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5829,14 +4977,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5043,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5109,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5175,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6141,14 +5241,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6180,14 +5274,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6297,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6336,14 +5406,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +5439,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5505,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +5538,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +5571,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6570,14 +5604,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6648,14 +5670,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6687,14 +5703,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +5769,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +5802,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6033,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6066,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +6099,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7194,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6165,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7272,14 +6198,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +6231,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7350,14 +6264,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7389,14 +6297,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7428,14 +6330,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6363,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +6396,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7545,14 +6429,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7584,14 +6462,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7623,14 +6495,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7662,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7701,14 +6561,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7740,14 +6594,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7779,14 +6627,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7818,14 +6660,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7857,14 +6693,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7896,14 +6726,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7935,14 +6759,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7974,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8013,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8052,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8091,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8130,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8169,14 +6957,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8208,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8247,14 +7023,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8286,14 +7056,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8325,14 +7089,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8364,14 +7122,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8403,14 +7155,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8442,14 +7188,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8481,14 +7221,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8520,14 +7254,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8559,14 +7287,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8598,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8637,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8676,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8715,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8793,14 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8871,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8910,14 +7584,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8988,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9027,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9066,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9105,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9144,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9183,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9222,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9261,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9300,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9339,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9378,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9417,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9456,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9495,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9534,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9573,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9612,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9651,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9690,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9768,14 +8310,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9807,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +8376,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9885,14 +8409,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9924,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9963,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10002,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +8541,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10080,14 +8574,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10119,14 +8607,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10158,14 +8640,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10197,14 +8673,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10236,14 +8706,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10275,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10314,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +8805,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +8871,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10470,14 +8904,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10509,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +8970,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10587,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +9036,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9135,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10782,14 +9168,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10821,14 +9201,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10860,14 +9234,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10899,14 +9267,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10938,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10977,14 +9333,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11016,14 +9366,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11055,14 +9399,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11094,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11133,14 +9465,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11172,14 +9498,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11211,14 +9531,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11250,14 +9564,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11289,14 +9597,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11328,14 +9630,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11367,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +9696,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11442,19 +9726,13 @@
         <v>93002.34399800158</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>1.046123412569196</v>
+        <v>1</v>
       </c>
       <c r="M279" t="inlineStr"/>
     </row>
@@ -11481,7 +9759,7 @@
         <v>93388.54589800158</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11514,7 +9792,7 @@
         <v>93388.54589800158</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11580,7 +9858,7 @@
         <v>96296.17819800158</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11613,7 +9891,7 @@
         <v>103727.5829980016</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11646,7 +9924,7 @@
         <v>107727.0469980016</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11679,7 +9957,7 @@
         <v>146169.5865980016</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11712,7 +9990,7 @@
         <v>147855.8920980016</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11745,7 +10023,7 @@
         <v>145899.9516980016</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11778,7 +10056,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11877,7 +10155,7 @@
         <v>143206.1335980016</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11910,7 +10188,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12009,7 +10287,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12042,7 +10320,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12075,7 +10353,7 @@
         <v>140438.3989980016</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -12108,7 +10386,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12141,7 +10419,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12174,7 +10452,7 @@
         <v>144975.9714980015</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12207,7 +10485,7 @@
         <v>144165.4067980016</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12240,7 +10518,7 @@
         <v>140758.6884980015</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12273,7 +10551,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12306,7 +10584,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12339,7 +10617,7 @@
         <v>140149.0955980015</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12372,7 +10650,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12405,7 +10683,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12438,7 +10716,7 @@
         <v>139550.2266980015</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12471,7 +10749,7 @@
         <v>139482.4957980015</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12504,7 +10782,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12537,7 +10815,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12570,7 +10848,7 @@
         <v>136217.7729980015</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12603,7 +10881,7 @@
         <v>139923.2060980015</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -13296,7 +11574,7 @@
         <v>134679.7661980016</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13362,7 +11640,7 @@
         <v>131164.9522980016</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13395,7 +11673,7 @@
         <v>129671.8527980016</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13428,7 +11706,7 @@
         <v>128780.8698980016</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13461,7 +11739,7 @@
         <v>128721.7022980016</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13494,7 +11772,7 @@
         <v>128793.7022980016</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13527,7 +11805,7 @@
         <v>128793.7022980016</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13560,7 +11838,7 @@
         <v>127984.6710980016</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13593,7 +11871,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13626,7 +11904,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13659,7 +11937,7 @@
         <v>128516.2477980016</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13692,7 +11970,7 @@
         <v>129102.1751593886</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13725,7 +12003,7 @@
         <v>129102.1751593886</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13758,7 +12036,7 @@
         <v>129570.6943593886</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13791,7 +12069,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13824,7 +12102,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13857,7 +12135,7 @@
         <v>130617.6677593886</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13890,7 +12168,7 @@
         <v>130591.7672593886</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14385,7 +12663,7 @@
         <v>109044.6508574115</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14418,7 +12696,7 @@
         <v>108881.7194574115</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14451,7 +12729,7 @@
         <v>108940.6160574115</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14484,7 +12762,7 @@
         <v>108894.2187574115</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14517,7 +12795,7 @@
         <v>108831.9152574115</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14550,7 +12828,7 @@
         <v>108925.5809574115</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14583,7 +12861,7 @@
         <v>108558.2512574115</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14616,7 +12894,7 @@
         <v>108559.1008574115</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14649,7 +12927,7 @@
         <v>108200.5699574115</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14682,7 +12960,7 @@
         <v>107700.5699574115</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14715,7 +12993,7 @@
         <v>107872.1589574115</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14748,7 +13026,7 @@
         <v>109426.5733574115</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14781,7 +13059,7 @@
         <v>107267.0565574115</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14814,7 +13092,7 @@
         <v>107235.5219574115</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14847,7 +13125,7 @@
         <v>107761.9797574115</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14880,7 +13158,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14913,7 +13191,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14946,7 +13224,7 @@
         <v>107755.1533574115</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14979,7 +13257,7 @@
         <v>108745.9533574115</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15012,7 +13290,7 @@
         <v>108756.3533574115</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15078,7 +13356,7 @@
         <v>108844.8404574115</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15111,7 +13389,7 @@
         <v>108972.0410574115</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15441,7 +13719,7 @@
         <v>108655.4916574115</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15474,7 +13752,7 @@
         <v>108655.4916574115</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15507,7 +13785,7 @@
         <v>108795.5058574115</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15540,7 +13818,7 @@
         <v>108695.5058574115</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15573,7 +13851,7 @@
         <v>109783.0512574115</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15672,7 +13950,7 @@
         <v>110496.8105574115</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15837,7 +14115,7 @@
         <v>110556.6969707929</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15870,7 +14148,7 @@
         <v>111516.4415707929</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15903,7 +14181,7 @@
         <v>111534.8380707929</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15936,7 +14214,7 @@
         <v>112430.6219707929</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16266,7 +14544,7 @@
         <v>114343.675795917</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16299,7 +14577,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16332,7 +14610,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16365,7 +14643,7 @@
         <v>114322.011695917</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16398,7 +14676,7 @@
         <v>114623.011695917</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16431,7 +14709,7 @@
         <v>114622.511695917</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16464,7 +14742,7 @@
         <v>114622.511695917</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16497,7 +14775,7 @@
         <v>114619.4070700244</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16530,7 +14808,7 @@
         <v>114617.0551700244</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16563,7 +14841,7 @@
         <v>114617.0551700244</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16596,7 +14874,7 @@
         <v>114704.3172700244</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16629,7 +14907,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16662,7 +14940,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16695,7 +14973,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16728,7 +15006,7 @@
         <v>114354.3440700244</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16761,7 +15039,7 @@
         <v>112444.1431700244</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16794,7 +15072,7 @@
         <v>114925.0481700244</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16827,7 +15105,7 @@
         <v>115459.4139700244</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16860,7 +15138,7 @@
         <v>115978.7467700244</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16893,7 +15171,7 @@
         <v>115903.3809700244</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16926,7 +15204,7 @@
         <v>115903.3809700244</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16959,7 +15237,7 @@
         <v>115872.3346700244</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16992,7 +15270,7 @@
         <v>115872.4346700244</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17025,7 +15303,7 @@
         <v>115872.4346700244</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17058,7 +15336,7 @@
         <v>114902.4346700244</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17091,7 +15369,7 @@
         <v>114734.4241700244</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17124,7 +15402,7 @@
         <v>114055.1889700244</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17157,7 +15435,7 @@
         <v>114288.9121700244</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17190,7 +15468,7 @@
         <v>114178.8001700244</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17223,7 +15501,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17256,7 +15534,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17289,7 +15567,7 @@
         <v>114019.8001700244</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17322,7 +15600,7 @@
         <v>114018.2833700244</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17355,7 +15633,7 @@
         <v>113011.3447700244</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17388,7 +15666,7 @@
         <v>113011.3447700244</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17421,7 +15699,7 @@
         <v>112860.5104700244</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17454,7 +15732,7 @@
         <v>112873.0299700244</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17487,7 +15765,7 @@
         <v>112843.0299700244</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17520,7 +15798,7 @@
         <v>112334.7389700244</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17553,7 +15831,7 @@
         <v>112410.9583700244</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17586,7 +15864,7 @@
         <v>112218.9583700244</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17619,7 +15897,7 @@
         <v>112258.6702700244</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17652,7 +15930,7 @@
         <v>112588.6802700244</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17685,7 +15963,7 @@
         <v>114233.6702700244</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17718,7 +15996,7 @@
         <v>112523.8745700244</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17751,7 +16029,7 @@
         <v>112523.8745700244</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17784,7 +16062,7 @@
         <v>113558.8295700244</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17817,7 +16095,7 @@
         <v>113558.8295700244</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18279,7 +16557,7 @@
         <v>113916.1957303488</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18345,7 +16623,7 @@
         <v>113916.1957303488</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -20226,7 +18504,7 @@
         <v>116968.3397223218</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20424,7 +18702,7 @@
         <v>118129.8340223218</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20523,7 +18801,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20556,7 +18834,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20754,7 +19032,7 @@
         <v>121698.3336223218</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20897,6 +19175,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LINK.xlsx
+++ b/BackTest/2019-11-01 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3070</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3070</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3070</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3070</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3070</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3074</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3074</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>7424.921318442909</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3074</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>7425.921318442909</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3071</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>7225.921318442909</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,9 +806,13 @@
         <v>3054</v>
       </c>
       <c r="J11" t="n">
-        <v>3054</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,11 +847,11 @@
         <v>3066</v>
       </c>
       <c r="J12" t="n">
-        <v>3054</v>
+        <v>3071</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -832,11 +888,11 @@
         <v>3055</v>
       </c>
       <c r="J13" t="n">
-        <v>3054</v>
+        <v>3071</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -873,9 +929,13 @@
         <v>3041</v>
       </c>
       <c r="J14" t="n">
-        <v>3041</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -910,11 +970,11 @@
         <v>3051</v>
       </c>
       <c r="J15" t="n">
-        <v>3041</v>
+        <v>3071</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -951,11 +1011,11 @@
         <v>3041</v>
       </c>
       <c r="J16" t="n">
-        <v>3041</v>
+        <v>3071</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -992,9 +1052,13 @@
         <v>3041</v>
       </c>
       <c r="J17" t="n">
-        <v>3041</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1029,11 +1093,11 @@
         <v>3054</v>
       </c>
       <c r="J18" t="n">
-        <v>3041</v>
+        <v>3071</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1070,11 +1134,11 @@
         <v>3054</v>
       </c>
       <c r="J19" t="n">
-        <v>3041</v>
+        <v>3071</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1111,9 +1175,13 @@
         <v>3046</v>
       </c>
       <c r="J20" t="n">
-        <v>3046</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1148,11 +1216,11 @@
         <v>3059</v>
       </c>
       <c r="J21" t="n">
-        <v>3046</v>
+        <v>3071</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1189,11 +1257,11 @@
         <v>3059</v>
       </c>
       <c r="J22" t="n">
-        <v>3046</v>
+        <v>3071</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1230,9 +1298,13 @@
         <v>3044</v>
       </c>
       <c r="J23" t="n">
-        <v>3044</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1339,11 @@
         <v>3044</v>
       </c>
       <c r="J24" t="n">
-        <v>3044</v>
+        <v>3071</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1308,11 +1380,11 @@
         <v>3069</v>
       </c>
       <c r="J25" t="n">
-        <v>3044</v>
+        <v>3071</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1349,9 +1421,13 @@
         <v>3050</v>
       </c>
       <c r="J26" t="n">
-        <v>3050</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1462,11 @@
         <v>3066</v>
       </c>
       <c r="J27" t="n">
-        <v>3050</v>
+        <v>3071</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1421,15 +1497,17 @@
         <v>7068.222175019892</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3055</v>
+      </c>
       <c r="J28" t="n">
-        <v>3050</v>
+        <v>3071</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1460,11 +1538,19 @@
         <v>6828.237875019892</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3064</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1579,19 @@
         <v>6325.551475019893</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3063</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1620,19 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3062</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,11 +1661,19 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3064</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1592,11 +1702,19 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3064</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1743,19 @@
         <v>6481.032075019893</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3064</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1658,11 +1784,19 @@
         <v>6448.511175019892</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3056</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1691,11 +1825,19 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1724,11 +1866,19 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3066</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1757,11 +1907,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3066</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1790,11 +1948,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1823,11 +1989,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1856,11 +2030,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1889,11 +2071,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1922,11 +2112,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1955,11 +2153,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +2194,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +2235,19 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +2276,19 @@
         <v>6839.438626536031</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2087,11 +2317,19 @@
         <v>6834.438626536031</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3054</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2126,9 +2364,13 @@
         <v>3052</v>
       </c>
       <c r="J49" t="n">
-        <v>3052</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>3071</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2157,15 +2399,17 @@
         <v>7316.957226536031</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3067</v>
+      </c>
       <c r="J50" t="n">
-        <v>3052</v>
+        <v>3071</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2196,15 +2440,17 @@
         <v>7353.929426536031</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3069</v>
+      </c>
       <c r="J51" t="n">
-        <v>3052</v>
+        <v>3071</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2235,11 +2481,19 @@
         <v>7378.929426536031</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3070</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2268,11 +2522,19 @@
         <v>8296.272826536031</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2304,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2337,8 +2605,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2370,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2403,8 +2683,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2436,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2469,8 +2761,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2502,8 +2800,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2535,8 +2839,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2565,11 +2875,17 @@
         <v>10905.66659542032</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2914,17 @@
         <v>13835.24099542032</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2631,11 +2953,17 @@
         <v>14376.57369542032</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2992,17 @@
         <v>14651.58719542032</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2697,11 +3031,17 @@
         <v>14851.58719542032</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +3070,17 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +3109,17 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2796,11 +3148,17 @@
         <v>17086.53699542032</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +3187,17 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +3226,17 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +3265,17 @@
         <v>17656.21349542032</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2928,11 +3304,17 @@
         <v>17698.02579542032</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +3343,17 @@
         <v>16556.57839542032</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +3382,17 @@
         <v>15556.57839542032</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +3421,17 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +3460,17 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +3499,17 @@
         <v>15653.83149542032</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +3538,17 @@
         <v>15887.62199542032</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3159,11 +3577,17 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +3616,17 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3225,11 +3655,17 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3694,17 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3291,11 +3733,17 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +3772,17 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3811,17 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3850,17 @@
         <v>17962.40989542031</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3889,17 @@
         <v>18791.98249542031</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3928,17 @@
         <v>19218.74699542032</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3967,17 @@
         <v>24221.00569542032</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +4006,17 @@
         <v>29031.15119542032</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +4045,17 @@
         <v>32445.15819542032</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3591,8 +4087,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3624,8 +4126,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3657,8 +4165,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3690,8 +4204,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3723,8 +4243,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3756,8 +4282,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3789,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3822,8 +4360,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3855,8 +4399,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3888,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3921,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3954,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3987,8 +4555,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4020,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4053,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4086,8 +4672,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4119,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4152,8 +4750,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4185,8 +4789,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4218,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4251,8 +4867,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4284,8 +4906,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4317,8 +4945,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4350,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4383,8 +5023,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4416,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +5101,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4515,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4548,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4581,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4614,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4647,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4713,8 +5413,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +5452,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4812,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4845,8 +5569,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4878,8 +5608,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4911,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4944,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4977,8 +5725,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5803,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5881,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5241,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5274,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5373,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5406,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5439,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5472,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5505,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5538,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5571,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +6661,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5901,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5967,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6000,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6033,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6066,8 +7012,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +7168,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6231,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6264,8 +7246,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6297,8 +7285,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6330,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6363,8 +7363,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6396,8 +7402,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6429,8 +7441,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6462,8 +7480,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6495,8 +7519,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6528,8 +7558,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6561,8 +7597,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6594,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6627,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6660,8 +7714,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6693,8 +7753,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6726,8 +7792,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7831,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7948,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +8026,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +8065,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +8143,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +8182,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +8221,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +8260,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +8299,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +8338,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +8416,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +8494,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +8611,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7518,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7551,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7584,8 +8806,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7617,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7650,8 +8884,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +8923,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7716,8 +8962,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7749,8 +9001,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7782,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +9079,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7848,8 +9118,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7881,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +9196,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +9235,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +9274,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +9313,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +9391,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +9430,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +9586,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +9625,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +9664,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +9742,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +9781,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +9820,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9859,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9898,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9937,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +10015,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +10054,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +10093,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +10132,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +10171,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +10210,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +10249,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +10288,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +10327,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8904,8 +10366,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8937,8 +10405,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +10444,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9003,8 +10483,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9036,8 +10522,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9069,8 +10561,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +10600,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +10639,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +10678,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10717,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10756,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +10795,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +10834,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +10873,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9366,8 +10912,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10951,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +10990,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +11029,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9498,8 +11068,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +11107,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +11146,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +11185,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +11224,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +11263,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +11302,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +11341,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +11380,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +11419,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +11458,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +11497,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +11536,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +11575,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +11614,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9990,15 +11650,23 @@
         <v>147855.8920980016</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3071</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>1.059474112666884</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1.001302931596091</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10023,7 +11691,7 @@
         <v>145899.9516980016</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10056,7 +11724,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10089,7 +11757,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10122,7 +11790,7 @@
         <v>146064.6431980015</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10155,7 +11823,7 @@
         <v>143206.1335980016</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10188,7 +11856,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10221,7 +11889,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10254,7 +11922,7 @@
         <v>140700.5702980015</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10287,7 +11955,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10320,7 +11988,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10353,7 +12021,7 @@
         <v>140438.3989980016</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10386,7 +12054,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10419,7 +12087,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10452,7 +12120,7 @@
         <v>144975.9714980015</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10485,7 +12153,7 @@
         <v>144165.4067980016</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10518,7 +12186,7 @@
         <v>140758.6884980015</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10551,7 +12219,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10650,7 +12318,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10683,7 +12351,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10716,7 +12384,7 @@
         <v>139550.2266980015</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10749,7 +12417,7 @@
         <v>139482.4957980015</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10782,7 +12450,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11145,7 +12813,7 @@
         <v>139088.6742980015</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13356,7 +15024,7 @@
         <v>108844.8404574115</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13389,7 +15057,7 @@
         <v>108972.0410574115</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -18504,7 +20172,7 @@
         <v>116968.3397223218</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18702,7 +20370,7 @@
         <v>118129.8340223218</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18801,7 +20469,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18834,7 +20502,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19032,7 +20700,7 @@
         <v>121698.3336223218</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
